--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689EB3E-1C84-A542-8B1F-7A1559490A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D8A9CA-5136-8642-A0A4-2B59D7E120DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="19">
   <si>
     <t>Send</t>
   </si>
@@ -67,28 +67,31 @@
     <t>Connect with Json</t>
   </si>
   <si>
-    <t>Send File (Without Encryption)</t>
-  </si>
-  <si>
-    <t>Send File (With Encryption)</t>
-  </si>
-  <si>
     <t>Send Folder (Without Encryption)</t>
   </si>
   <si>
     <t>Send Folder (With Encryption)</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Send Files (Without Encryption)</t>
   </si>
   <si>
     <t>Send Files (With Encryption)</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Show Warnings</t>
+  </si>
+  <si>
+    <t>Proper UI</t>
+  </si>
+  <si>
+    <t>Changing in Preferences saving</t>
+  </si>
+  <si>
+    <t>Inbuilt Updater</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -172,11 +175,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +211,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="139" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -554,8 +579,21 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="9"/>
+      <c r="W1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +612,33 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="W2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -606,40 +669,70 @@
       <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="W3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -670,40 +763,42 @@
       <c r="M5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -734,40 +829,86 @@
       <c r="M7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="8"/>
+      <c r="W7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="5"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="W8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -798,56 +939,104 @@
       <c r="M9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="W9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="I13" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5"/>
+      <c r="W13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,8 +1055,26 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="5"/>
+      <c r="W14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -898,40 +1105,100 @@
       <c r="M15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -962,40 +1229,100 @@
       <c r="M17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1026,40 +1353,100 @@
       <c r="M19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1090,22 +1477,52 @@
       <c r="M21" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>6</v>
@@ -1122,607 +1539,53 @@
       <c r="M22" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="I25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="I26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="I37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="I38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="P22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="P7:S7"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="J14:M14"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="J26:M26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="X14:AA14"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B14:E14"/>
   </mergeCells>
